--- a/Jogos_do_Dia/2023-12-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="K2" t="n">
-        <v>4.95</v>
+        <v>4.22</v>
       </c>
       <c r="L2" t="n">
-        <v>8.65</v>
+        <v>8.23</v>
       </c>
       <c r="M2" t="n">
         <v>1.36</v>
@@ -718,10 +718,10 @@
         <v>3.48</v>
       </c>
       <c r="S2" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="T2" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -796,7 +796,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -808,35 +808,35 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>U Craiova 1948</t>
+          <t>Radnički Niš</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Botoşani</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H3" t="n">
         <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="J3" t="n">
-        <v>1.73</v>
+        <v>4.99</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="L3" t="n">
-        <v>4.89</v>
+        <v>1.58</v>
       </c>
       <c r="M3" t="n">
         <v>1.36</v>
@@ -845,97 +845,97 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="S3" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.33</v>
+        <v>2.75</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.86</v>
+        <v>3.83</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -947,35 +947,35 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Radnički Niš</t>
+          <t>U Craiova 1948</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Botoşani</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>4.8</v>
+        <v>1.87</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.52</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>3.92</v>
       </c>
       <c r="M4" t="n">
         <v>1.36</v>
@@ -984,61 +984,61 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="U4" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>1.11</v>
       </c>
-      <c r="Z4" t="n">
-        <v>1.14</v>
-      </c>
       <c r="AA4" t="n">
-        <v>2.75</v>
+        <v>0.33</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.1</v>
+        <v>1.15</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.83</v>
+        <v>2.86</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.56</v>
       </c>
       <c r="L5" t="n">
-        <v>5.09</v>
+        <v>4.94</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1135,10 +1135,10 @@
         <v>3.25</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1386,13 +1386,13 @@
         <v>2.25</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.77</v>
       </c>
       <c r="L7" t="n">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="M7" t="n">
         <v>1.36</v>
@@ -1413,10 +1413,10 @@
         <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
         <v>1.72</v>
@@ -1458,16 +1458,16 @@
         <v>1.71</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AL7" t="n">
         <v>1.78</v>
@@ -1482,10 +1482,10 @@
         <v>1.64</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>3.49</v>
       </c>
       <c r="J8" t="n">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="K8" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.3</v>
       </c>
       <c r="M8" t="n">
         <v>1.44</v>
@@ -1552,10 +1552,10 @@
         <v>3.75</v>
       </c>
       <c r="S8" t="n">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
         <v>1.78</v>
@@ -1664,13 +1664,13 @@
         <v>3.46</v>
       </c>
       <c r="J9" t="n">
-        <v>2.43</v>
+        <v>2.19</v>
       </c>
       <c r="K9" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.42</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.86</v>
       </c>
       <c r="M9" t="n">
         <v>1.44</v>
@@ -1691,10 +1691,10 @@
         <v>3.44</v>
       </c>
       <c r="S9" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="T9" t="n">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
         <v>1.75</v>
@@ -1803,13 +1803,13 @@
         <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>5.2</v>
+        <v>5.46</v>
       </c>
       <c r="M10" t="n">
         <v>1.33</v>
@@ -1830,10 +1830,10 @@
         <v>3.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U10" t="n">
         <v>1.8</v>
@@ -1942,13 +1942,13 @@
         <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="K11" t="n">
-        <v>3.24</v>
+        <v>3.21</v>
       </c>
       <c r="L11" t="n">
-        <v>2.81</v>
+        <v>2.94</v>
       </c>
       <c r="M11" t="n">
         <v>1.44</v>
@@ -1969,7 +1969,7 @@
         <v>3.3</v>
       </c>
       <c r="S11" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T11" t="n">
         <v>1.82</v>
@@ -2081,13 +2081,13 @@
         <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.8</v>
+        <v>3.01</v>
       </c>
       <c r="K12" t="n">
         <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="M12" t="n">
         <v>1.4</v>
@@ -2108,10 +2108,10 @@
         <v>3.4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
         <v>1.8</v>
@@ -2220,13 +2220,13 @@
         <v>2.85</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>3.36</v>
       </c>
       <c r="K13" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.6</v>
+        <v>2.16</v>
       </c>
       <c r="M13" t="n">
         <v>1.44</v>
@@ -2247,10 +2247,10 @@
         <v>3.25</v>
       </c>
       <c r="S13" t="n">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
         <v>1.8</v>
@@ -2637,13 +2637,13 @@
         <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.51</v>
+        <v>2.56</v>
       </c>
       <c r="K16" t="n">
         <v>3.42</v>
       </c>
       <c r="L16" t="n">
-        <v>2.75</v>
+        <v>2.81</v>
       </c>
       <c r="M16" t="n">
         <v>1.33</v>
@@ -2664,10 +2664,10 @@
         <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="T16" t="n">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="U16" t="n">
         <v>1.57</v>
@@ -2776,13 +2776,13 @@
         <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K17" t="n">
-        <v>3.2</v>
+        <v>3.32</v>
       </c>
       <c r="L17" t="n">
-        <v>3.23</v>
+        <v>3.29</v>
       </c>
       <c r="M17" t="n">
         <v>1.4</v>
@@ -2803,10 +2803,10 @@
         <v>3.25</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T17" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
         <v>1.8</v>
@@ -2881,7 +2881,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2893,134 +2893,134 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>CD Tenerife</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>AD Alcorcón</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.34</v>
+        <v>1.68</v>
       </c>
       <c r="K18" t="n">
-        <v>3.34</v>
+        <v>3.61</v>
       </c>
       <c r="L18" t="n">
-        <v>3.06</v>
+        <v>5.9</v>
       </c>
       <c r="M18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.44</v>
       </c>
-      <c r="N18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AB18" t="n">
         <v>1.35</v>
       </c>
-      <c r="R18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.74</v>
-      </c>
       <c r="AC18" t="n">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="AD18" t="n">
-        <v>3.01</v>
+        <v>2.44</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.92</v>
+        <v>1.43</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.17</v>
+        <v>3.54</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.56</v>
+        <v>3.04</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="AK18" t="n">
-        <v>2.56</v>
+        <v>2.21</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.81</v>
+        <v>2.03</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.04</v>
+        <v>3.65</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -3032,128 +3032,128 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CD Tenerife</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AD Alcorcón</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.8</v>
       </c>
-      <c r="K19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P19" t="n">
+      <c r="V19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AF19" t="n">
         <v>7.5</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>9.699999999999999</v>
-      </c>
       <c r="AG19" t="n">
-        <v>3.54</v>
+        <v>2.17</v>
       </c>
       <c r="AH19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>1.31</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>1.22</v>
       </c>
     </row>
     <row r="20">
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.62</v>
+        <v>2.81</v>
       </c>
       <c r="K20" t="n">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="L20" t="n">
-        <v>2.67</v>
+        <v>2.59</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -3220,10 +3220,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T20" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-12-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AQ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="K2" t="n">
-        <v>4.22</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>8.23</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.36</v>
@@ -718,10 +718,10 @@
         <v>3.48</v>
       </c>
       <c r="S2" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -739,10 +739,10 @@
         <v>2.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AB2" t="n">
         <v>1.41</v>
@@ -796,7 +796,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -808,35 +808,35 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Radnički Niš</t>
+          <t>U Craiova 1948</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Botoşani</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>4.99</v>
+        <v>1.78</v>
       </c>
       <c r="K3" t="n">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.58</v>
+        <v>3.95</v>
       </c>
       <c r="M3" t="n">
         <v>1.36</v>
@@ -848,94 +848,94 @@
         <v>1.05</v>
       </c>
       <c r="P3" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="n">
         <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>3.45</v>
+        <v>3.53</v>
       </c>
       <c r="S3" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>2.3</v>
+        <v>1.27</v>
       </c>
       <c r="X3" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.11</v>
+        <v>2.06</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.75</v>
+        <v>0.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.1</v>
+        <v>1.15</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.83</v>
+        <v>2.86</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.77</v>
+        <v>1.49</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.64</v>
+        <v>3.18</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.28</v>
+        <v>3</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="AO3" t="n">
         <v>1.46</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -947,35 +947,35 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>U Craiova 1948</t>
+          <t>Radnički Niš</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Botoşani</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H4" t="n">
         <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
-        <v>1.87</v>
+        <v>5.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.52</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>3.92</v>
+        <v>1.48</v>
       </c>
       <c r="M4" t="n">
         <v>1.36</v>
@@ -984,91 +984,91 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="S4" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T4" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.11</v>
+        <v>1.38</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.33</v>
+        <v>2.44</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.86</v>
+        <v>3.83</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="5">
@@ -1108,13 +1108,13 @@
         <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="K5" t="n">
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>4.94</v>
+        <v>4.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1135,10 +1135,10 @@
         <v>3.25</v>
       </c>
       <c r="S5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1156,10 +1156,10 @@
         <v>2.15</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AB5" t="n">
         <v>1.43</v>
@@ -1386,13 +1386,13 @@
         <v>2.25</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="K7" t="n">
-        <v>3.77</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="M7" t="n">
         <v>1.36</v>
@@ -1413,10 +1413,10 @@
         <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U7" t="n">
         <v>1.72</v>
@@ -1434,7 +1434,7 @@
         <v>1.17</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AA7" t="n">
         <v>1</v>
@@ -1525,13 +1525,13 @@
         <v>3.49</v>
       </c>
       <c r="J8" t="n">
-        <v>2.13</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.42</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>1.72</v>
       </c>
       <c r="M8" t="n">
         <v>1.44</v>
@@ -1552,10 +1552,10 @@
         <v>3.75</v>
       </c>
       <c r="S8" t="n">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
         <v>1.78</v>
@@ -1573,7 +1573,7 @@
         <v>1.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AA8" t="n">
         <v>1</v>
@@ -1664,13 +1664,13 @@
         <v>3.46</v>
       </c>
       <c r="J9" t="n">
-        <v>2.19</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.44</v>
+        <v>2.86</v>
       </c>
       <c r="L9" t="n">
-        <v>3.42</v>
+        <v>2.93</v>
       </c>
       <c r="M9" t="n">
         <v>1.44</v>
@@ -1691,10 +1691,10 @@
         <v>3.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="U9" t="n">
         <v>1.75</v>
@@ -1712,10 +1712,10 @@
         <v>1.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AB9" t="n">
         <v>1.48</v>
@@ -1769,7 +1769,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,134 +1781,134 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.51</v>
+        <v>2.55</v>
       </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>3.28</v>
       </c>
       <c r="L10" t="n">
-        <v>5.46</v>
+        <v>2.96</v>
       </c>
       <c r="M10" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="O10" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="P10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="R10" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="U10" t="n">
         <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W10" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="X10" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>0.63</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.43</v>
+        <v>0.71</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.66</v>
+        <v>1.21</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.31</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.97</v>
+        <v>2.15</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.34</v>
+        <v>2.05</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG10" t="n">
-        <v>3.92</v>
+        <v>2.06</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.04</v>
+        <v>2.9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.19</v>
+        <v>2.29</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.64</v>
+        <v>3.2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,128 +1920,128 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.58</v>
+        <v>1.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.21</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>2.94</v>
+        <v>4.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="N11" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="R11" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="S11" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="T11" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="U11" t="n">
         <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="X11" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.57</v>
+        <v>2.11</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.21</v>
+        <v>1.66</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.15</v>
+        <v>2.97</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.05</v>
+        <v>1.34</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.06</v>
+        <v>3.92</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.9</v>
+        <v>3.04</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.29</v>
+        <v>2.19</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.2</v>
+        <v>3.64</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="12">
@@ -2081,13 +2081,13 @@
         <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.01</v>
+        <v>3.66</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>2.54</v>
       </c>
       <c r="L12" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="M12" t="n">
         <v>1.4</v>
@@ -2108,10 +2108,10 @@
         <v>3.4</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U12" t="n">
         <v>1.8</v>
@@ -2129,10 +2129,10 @@
         <v>1.42</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AB12" t="n">
         <v>1.29</v>
@@ -2220,13 +2220,13 @@
         <v>2.85</v>
       </c>
       <c r="J13" t="n">
-        <v>3.36</v>
+        <v>4.14</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>2.54</v>
       </c>
       <c r="L13" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="M13" t="n">
         <v>1.44</v>
@@ -2247,10 +2247,10 @@
         <v>3.25</v>
       </c>
       <c r="S13" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
         <v>1.8</v>
@@ -2637,13 +2637,13 @@
         <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
-        <v>2.81</v>
+        <v>2.7</v>
       </c>
       <c r="M16" t="n">
         <v>1.33</v>
@@ -2664,10 +2664,10 @@
         <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="T16" t="n">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="U16" t="n">
         <v>1.57</v>
@@ -2776,13 +2776,13 @@
         <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="K17" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>3.29</v>
+        <v>2.71</v>
       </c>
       <c r="M17" t="n">
         <v>1.4</v>
@@ -2803,10 +2803,10 @@
         <v>3.25</v>
       </c>
       <c r="S17" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="U17" t="n">
         <v>1.8</v>
@@ -2915,13 +2915,13 @@
         <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="K18" t="n">
-        <v>3.61</v>
+        <v>3.25</v>
       </c>
       <c r="L18" t="n">
-        <v>5.9</v>
+        <v>4.33</v>
       </c>
       <c r="M18" t="n">
         <v>1.53</v>
@@ -2936,16 +2936,16 @@
         <v>7.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R18" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="S18" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="T18" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="U18" t="n">
         <v>2.38</v>
@@ -3054,13 +3054,13 @@
         <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="L19" t="n">
-        <v>3.08</v>
+        <v>3.25</v>
       </c>
       <c r="M19" t="n">
         <v>1.44</v>
@@ -3084,7 +3084,7 @@
         <v>2.02</v>
       </c>
       <c r="T19" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U19" t="n">
         <v>1.8</v>
@@ -3159,7 +3159,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -3167,131 +3167,270 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>16</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>17:15:00</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Gil Vicente</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Moreirense FC</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
         <v>1.83</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA21" t="n">
         <v>2.17</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB21" t="n">
         <v>1.13</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC21" t="n">
         <v>1.04</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD21" t="n">
         <v>2.17</v>
       </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>0</v>
       </c>
     </row>
